--- a/Archive/RF/RF Lifetime Predictions.xlsx
+++ b/Archive/RF/RF Lifetime Predictions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thigg\Desktop\Hockey Models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thigg\Desktop\Hockey Models\Archive\RF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BFA0A9C-52DA-40CD-99B8-E85A024D21CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2331D4E-F33C-4190-82E6-6757741320F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -961,7 +961,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45311.925283217592" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="311" xr:uid="{DA5DA62F-86DF-48F4-B83B-306BE2A00D1E}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45312.440365856484" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="311" xr:uid="{DA5DA62F-86DF-48F4-B83B-306BE2A00D1E}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:O1048576" sheet="Predictions"/>
   </cacheSource>
@@ -6470,7 +6470,7 @@
     <s v="New York Rangers"/>
     <n v="0.46800000000000003"/>
     <s v="Playing At:  Los Angeles Kings   Home"/>
-    <n v="0"/>
+    <n v="1"/>
     <x v="4"/>
     <m/>
     <m/>
@@ -6517,6 +6517,99 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{356A29A8-7537-4F34-9050-3E279C8F33A9}" name="PivotTable3" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="L3:N12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="16">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item h="1" x="8"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Count of Winner" fld="2" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Model" fld="7" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FF87AC2C-F765-45B0-A26D-AAA33F3641F7}" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A5:C11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="16">
@@ -6791,99 +6884,6 @@
     <pageField fld="1" hier="-1"/>
     <pageField fld="3" hier="-1"/>
   </pageFields>
-  <dataFields count="2">
-    <dataField name="Count of Winner" fld="2" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Model" fld="7" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{356A29A8-7537-4F34-9050-3E279C8F33A9}" name="PivotTable3" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="L3:N12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="16">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item h="1" x="8"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="9">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
   <dataFields count="2">
     <dataField name="Count of Winner" fld="2" subtotal="count" baseField="0" baseItem="0"/>
     <dataField name="Sum of Model" fld="7" baseField="0" baseItem="0"/>
@@ -7200,7 +7200,7 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7359,7 +7359,7 @@
       </c>
       <c r="E7" s="10">
         <f>SUM(C9:C10)</f>
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F7" s="8">
         <f>SUM(C6:C8)</f>
@@ -7399,7 +7399,7 @@
       </c>
       <c r="E8" s="11">
         <f>E7/E6</f>
-        <v>0.5580357142857143</v>
+        <v>0.5625</v>
       </c>
       <c r="F8" s="9">
         <f>F7/F6</f>
@@ -7459,11 +7459,11 @@
         <v>100</v>
       </c>
       <c r="C10" s="15">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="1"/>
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>99</v>
@@ -7487,11 +7487,11 @@
         <v>310</v>
       </c>
       <c r="C11" s="15">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="1"/>
-        <v>0.5903225806451613</v>
+        <v>0.59354838709677415</v>
       </c>
       <c r="L11" s="4" t="s">
         <v>100</v>
@@ -7500,11 +7500,11 @@
         <v>49</v>
       </c>
       <c r="N11" s="15">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O11" s="5">
         <f t="shared" si="0"/>
-        <v>0.5714285714285714</v>
+        <v>0.59183673469387754</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
@@ -7515,7 +7515,7 @@
         <v>310</v>
       </c>
       <c r="N12" s="15">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -18122,7 +18122,7 @@
         <v>74</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I310" t="str" cm="1">
         <f t="array" ref="I310">_xlfn.IFS(D310 &gt;= 0.85, "85 &lt;", AND(D310 &gt;=0.8, D310 &lt; 0.85), "80-85", AND(D310 &gt;= 0.7, D310 &lt; 0.8), "70-80", AND(D310 &gt;= 0.6, D310 &lt; 0.7),  "60-70", AND(D310 &gt;= 0.5, D310 &lt; 0.6), "50-60")</f>
